--- a/Config Files/Trends_V0.xlsx
+++ b/Config Files/Trends_V0.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8D7AE3C-5C2A-47D9-8948-6CC42F72601A}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F677A4A-8AB6-4869-AD6F-8D392F4C7796}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -477,7 +477,7 @@
   <dimension ref="A1:U21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -549,7 +549,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>267</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -581,7 +581,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>378</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">

--- a/Config Files/Trends_V0.xlsx
+++ b/Config Files/Trends_V0.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F677A4A-8AB6-4869-AD6F-8D392F4C7796}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B1B116C-B673-4568-AD00-CF7CDE4B8726}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="198">
   <si>
     <t>Version: 1</t>
   </si>
@@ -119,13 +119,508 @@
   </si>
   <si>
     <t>#GROUP# POOL</t>
+  </si>
+  <si>
+    <t>Fire dmpr open time</t>
+  </si>
+  <si>
+    <t>External setpoint</t>
+  </si>
+  <si>
+    <t>Outdoor temperature</t>
+  </si>
+  <si>
+    <t>Outside air temp</t>
+  </si>
+  <si>
+    <t>Supply air temp</t>
+  </si>
+  <si>
+    <t>Extract air temp</t>
+  </si>
+  <si>
+    <t>Room temperature</t>
+  </si>
+  <si>
+    <t>Room unit temp</t>
+  </si>
+  <si>
+    <t>Exhaust air tmp</t>
+  </si>
+  <si>
+    <t>Tmp before cooler</t>
+  </si>
+  <si>
+    <t>Tmp after cooler</t>
+  </si>
+  <si>
+    <t>B11-Temperature</t>
+  </si>
+  <si>
+    <t>B12-Temperature</t>
+  </si>
+  <si>
+    <t>B13-Temperature</t>
+  </si>
+  <si>
+    <t>B14-Temperature</t>
+  </si>
+  <si>
+    <t>Auxiliary tmp 1</t>
+  </si>
+  <si>
+    <t>Auxiliary tmp 2</t>
+  </si>
+  <si>
+    <t>Auxiliary tmp 3</t>
+  </si>
+  <si>
+    <t>Auxiliary tmp 4</t>
+  </si>
+  <si>
+    <t>Sply air hum rel</t>
+  </si>
+  <si>
+    <t>Extract air hum rel</t>
+  </si>
+  <si>
+    <t>Room humidity rel</t>
+  </si>
+  <si>
+    <t>Outs air hum rel</t>
+  </si>
+  <si>
+    <t>Supply air enthalpy</t>
+  </si>
+  <si>
+    <t>Supply air hum abs</t>
+  </si>
+  <si>
+    <t>Extract air enthalpy</t>
+  </si>
+  <si>
+    <t>Extract air hum abs</t>
+  </si>
+  <si>
+    <t>Outs air enthalpy</t>
+  </si>
+  <si>
+    <t>Outs air hum abs</t>
+  </si>
+  <si>
+    <t>Air quality</t>
+  </si>
+  <si>
+    <t>Air quality 2</t>
+  </si>
+  <si>
+    <t>Air quality 3</t>
+  </si>
+  <si>
+    <t>Air quality 4</t>
+  </si>
+  <si>
+    <t>Pressure supply fan</t>
+  </si>
+  <si>
+    <t>Pressure extract fan</t>
+  </si>
+  <si>
+    <t>Supply air pressure</t>
+  </si>
+  <si>
+    <t>Extract air pressure</t>
+  </si>
+  <si>
+    <t>Fresh air filter</t>
+  </si>
+  <si>
+    <t>Extract filter</t>
+  </si>
+  <si>
+    <t>Supply filter</t>
+  </si>
+  <si>
+    <t>Exhaust filter</t>
+  </si>
+  <si>
+    <t>2 Aux supply filter</t>
+  </si>
+  <si>
+    <t>3 Aux supply filter</t>
+  </si>
+  <si>
+    <t>2 Aux extract filter</t>
+  </si>
+  <si>
+    <t>3 Aux extract filter</t>
+  </si>
+  <si>
+    <t>Supply air flow</t>
+  </si>
+  <si>
+    <t>Extract air flow</t>
+  </si>
+  <si>
+    <t>Outdoor temperature 2</t>
+  </si>
+  <si>
+    <t>Outdoor temperature 1</t>
+  </si>
+  <si>
+    <t>Supply fan power</t>
+  </si>
+  <si>
+    <t>SFP supply fan</t>
+  </si>
+  <si>
+    <t>Ext fan power</t>
+  </si>
+  <si>
+    <t>SFP extract fan</t>
+  </si>
+  <si>
+    <t>Sply fan outp sign</t>
+  </si>
+  <si>
+    <t>Extr fan outp signal</t>
+  </si>
+  <si>
+    <t>2 Extr fan outp signal</t>
+  </si>
+  <si>
+    <t>3 Extr fan outp signal</t>
+  </si>
+  <si>
+    <t>4 Extr fan outp signal</t>
+  </si>
+  <si>
+    <t>5 Extr fan outp signal</t>
+  </si>
+  <si>
+    <t>6 Extr fan outp signal</t>
+  </si>
+  <si>
+    <t>7 Extr fan outp signal</t>
+  </si>
+  <si>
+    <t>8 Extr fan outp signal</t>
+  </si>
+  <si>
+    <t>9 Extr fan outp signal</t>
+  </si>
+  <si>
+    <t>Mixing dampers outp signal</t>
+  </si>
+  <si>
+    <t>Hrec outp signal</t>
+  </si>
+  <si>
+    <t>Heating outp signal</t>
+  </si>
+  <si>
+    <t>Cooling outp signal</t>
+  </si>
+  <si>
+    <t>Htg/Clg outp signal</t>
+  </si>
+  <si>
+    <t>El heating outp signal</t>
+  </si>
+  <si>
+    <t>El heating</t>
+  </si>
+  <si>
+    <t>2 Electrical heating</t>
+  </si>
+  <si>
+    <t>Hum outp signal</t>
+  </si>
+  <si>
+    <t>Dehum outp signal</t>
+  </si>
+  <si>
+    <t>VRF outp signal</t>
+  </si>
+  <si>
+    <t>VRF command AO</t>
+  </si>
+  <si>
+    <t>VRF Htg/Clg AO</t>
+  </si>
+  <si>
+    <t>VRF2 outp signal</t>
+  </si>
+  <si>
+    <t>VRF2 command AO</t>
+  </si>
+  <si>
+    <t>VRF2 Htg/Clg AO</t>
+  </si>
+  <si>
+    <t>0x2300 'Unit1\DigitalInp.FDampInputs.FDampAlmTiDly'</t>
+  </si>
+  <si>
+    <t>0x2203 'Unit1\AnalogInp.ExtTempSpv'</t>
+  </si>
+  <si>
+    <t>0x2203 'Unit1\AnalogInp.TOutdoor'</t>
+  </si>
+  <si>
+    <t>0x2203 'Unit1\AnalogInp.TOutsideAir'</t>
+  </si>
+  <si>
+    <t>0x2203 'Unit1\AnalogInp.TSupplyAir'</t>
+  </si>
+  <si>
+    <t>0x2203 'Unit1\AnalogInp.TExtractAir'</t>
+  </si>
+  <si>
+    <t>0x2203 'Unit1\AnalogInp.TRoom'</t>
+  </si>
+  <si>
+    <t>0x2203 'Unit1\AnalogInp.TRoomUnit'</t>
+  </si>
+  <si>
+    <t>0x2203 'Unit1\AnalogInp.TExhaustAir'</t>
+  </si>
+  <si>
+    <t>0x2203 'Unit1\AnalogInp.TBfClr'</t>
+  </si>
+  <si>
+    <t>0x2203 'Unit1\AnalogInp.TAfClr'</t>
+  </si>
+  <si>
+    <t>0x2203 'Unit1\AnalogInp.B11-Temp'</t>
+  </si>
+  <si>
+    <t>0x2203 'Unit1\AnalogInp.B12-Temp'</t>
+  </si>
+  <si>
+    <t>0x2203 'Unit1\AnalogInp.B13-Temp'</t>
+  </si>
+  <si>
+    <t>0x2203 'Unit1\AnalogInp.B14-Temp'</t>
+  </si>
+  <si>
+    <t>0x2203 'Unit1\AnalogInp.TAux1'</t>
+  </si>
+  <si>
+    <t>0x2203 'Unit1\AnalogInp.TAux2'</t>
+  </si>
+  <si>
+    <t>0x2203 'Unit1\AnalogInp.TAux3'</t>
+  </si>
+  <si>
+    <t>0x2203 'Unit1\AnalogInp.TAux4'</t>
+  </si>
+  <si>
+    <t>0x2203 'Unit1\AnalogInp.HuRelSplyAir'</t>
+  </si>
+  <si>
+    <t>0x2203 'Unit1\AnalogInp.HuRelExtAir'</t>
+  </si>
+  <si>
+    <t>0x2203 'Unit1\AnalogInp.HuRelRoom'</t>
+  </si>
+  <si>
+    <t>0x2203 'Unit1\AnalogInp.HuRelOutAir'</t>
+  </si>
+  <si>
+    <t>0x230A 'Unit1\AnalogInp.EnthSplyAir'</t>
+  </si>
+  <si>
+    <t>0x230A 'Unit1\AnalogInp.HumAbsSplyAir'</t>
+  </si>
+  <si>
+    <t>0x230A 'Unit1\AnalogInp.EnthExtAir'</t>
+  </si>
+  <si>
+    <t>0x230A 'Unit1\AnalogInp.HumAbsExtAir'</t>
+  </si>
+  <si>
+    <t>0x230A 'Unit1\AnalogInp.EnthOutAir'</t>
+  </si>
+  <si>
+    <t>0x230A 'Unit1\AnalogInp.HumAbsOutAir'</t>
+  </si>
+  <si>
+    <t>0x2203 'Unit1\AnalogInp.AirQuality'</t>
+  </si>
+  <si>
+    <t>0x2203 'Unit1\AnalogInp.AirQuality2'</t>
+  </si>
+  <si>
+    <t>0x2203 'Unit1\AnalogInp.AirQuality3'</t>
+  </si>
+  <si>
+    <t>0x2203 'Unit1\AnalogInp.AirQuality4'</t>
+  </si>
+  <si>
+    <t>0x2203 'Unit1\AnalogInp.DiffPSenSuFan'</t>
+  </si>
+  <si>
+    <t>0x2203 'Unit1\AnalogInp.DiffPSenExFan'</t>
+  </si>
+  <si>
+    <t>0x2203 'Unit1\AnalogInp.DiffPSenSuAir'</t>
+  </si>
+  <si>
+    <t>0x2203 'Unit1\AnalogInp.DiffPSenExAir'</t>
+  </si>
+  <si>
+    <t>0x2203 'Unit1\AnalogInp.FreshAirFilter'</t>
+  </si>
+  <si>
+    <t>0x2203 'Unit1\AnalogInp.ExtAirFilter'</t>
+  </si>
+  <si>
+    <t>0x2203 'Unit1\AnalogInp.SplyAirFilter'</t>
+  </si>
+  <si>
+    <t>0x2203 'Unit1\AnalogInp.ExhAirFilter'</t>
+  </si>
+  <si>
+    <t>0x2203 'Unit1\AnalogInp.AuxSplyFilter'</t>
+  </si>
+  <si>
+    <t>0x2203 'Unit1\AnalogInp.AuxSplyFilter2'</t>
+  </si>
+  <si>
+    <t>0x2203 'Unit1\AnalogInp.AuxExtFilter'</t>
+  </si>
+  <si>
+    <t>0x2203 'Unit1\AnalogInp.AuxExtFilter2'</t>
+  </si>
+  <si>
+    <t>0x2200 'Unit1\FanControl.FlowSplyAir'</t>
+  </si>
+  <si>
+    <t>0x2200 'Unit1\FanControl.FlowExtAir'</t>
+  </si>
+  <si>
+    <t>0x2200 'Unit1\FanControl.DuctPressSply'</t>
+  </si>
+  <si>
+    <t>0x2200 'Unit1\FanControl.DuctPressExt'</t>
+  </si>
+  <si>
+    <t>0x230A 'Unit1\aoKNX.RcvDDC1Value2'</t>
+  </si>
+  <si>
+    <t>0x230A 'Unit1\aoKNX.RcvDDC2Value2'</t>
+  </si>
+  <si>
+    <t>0x2200 'Unit1\ModbusMS.PowerSplyFan'</t>
+  </si>
+  <si>
+    <t>0x2200 'Unit1\FanControl.SFPValueSplyFan'</t>
+  </si>
+  <si>
+    <t>0x2200 'Unit1\ModbusMS.PowerExtrFan'</t>
+  </si>
+  <si>
+    <t>0x2200 'Unit1\FanControl.SFPValueExtFan'</t>
+  </si>
+  <si>
+    <t>0x2206 'Unit1\FanControl.SplyFanCtrl.Var.Pos'</t>
+  </si>
+  <si>
+    <t>0x2206 'Unit1\FanControl.ExtFanCtrl.Var.Pos'</t>
+  </si>
+  <si>
+    <t>0x2206 'Unit1\FanControl.ExtFan2Ctrl.Var.Pos'</t>
+  </si>
+  <si>
+    <t>0x2206 'Unit1\FanControl.ExtFan3Ctrl.Var.Pos'</t>
+  </si>
+  <si>
+    <t>0x2206 'Unit1\FanControl.ExtFan4Ctrl.Var.Pos'</t>
+  </si>
+  <si>
+    <t>0x2206 'Unit1\FanControl.ExtFan5Ctrl.Var.Pos'</t>
+  </si>
+  <si>
+    <t>0x2206 'Unit1\FanControl.ExtFan6Ctrl.Var.Pos'</t>
+  </si>
+  <si>
+    <t>0x2206 'Unit1\FanControl.ExtFan7Ctrl.Var.Pos'</t>
+  </si>
+  <si>
+    <t>0x2206 'Unit1\FanControl.ExtFan8Ctrl.Var.Pos'</t>
+  </si>
+  <si>
+    <t>0x2206 'Unit1\FanControl.ExtFan9Ctrl.Var.Pos'</t>
+  </si>
+  <si>
+    <t>0x2206 'Unit1\TempControl.MixDmpReg'</t>
+  </si>
+  <si>
+    <t>0x2206 'Unit1\TempControl.HrcReg'</t>
+  </si>
+  <si>
+    <t>0x2206 'Unit1\TempControl.HtgVlvReg'</t>
+  </si>
+  <si>
+    <t>0x2206 'Unit1\TempControl.ClgVlvReg'</t>
+  </si>
+  <si>
+    <t>0x2206 'Unit1\TempControl.HtgClgVlvReg'</t>
+  </si>
+  <si>
+    <t>0x2206 'Unit1\TempControl.ElHeater.ElHeaterReg'</t>
+  </si>
+  <si>
+    <t>0x2206 'Unit1\TempControl.AuxElHtg1.Pos'</t>
+  </si>
+  <si>
+    <t>0x2206 'Unit1\TempControl.AuxElHtg2.Pos'</t>
+  </si>
+  <si>
+    <t>0x2206 'Unit1\aoHumitityControl.HumidifierReg'</t>
+  </si>
+  <si>
+    <t>0x2206 'Unit1\aoHumitityControl.DeHumidifierReg'</t>
+  </si>
+  <si>
+    <t>0x2206 'Unit1\TempControl.VRF.VRFReg'</t>
+  </si>
+  <si>
+    <t>0x2206 'Unit1\TempControl.VRF.VRFStartAO'</t>
+  </si>
+  <si>
+    <t>0x2206 'Unit1\TempControl.VRF.VRFChovrAO'</t>
+  </si>
+  <si>
+    <t>0x2206 'Unit1\TempControl.VRF.VRF2Reg'</t>
+  </si>
+  <si>
+    <t>0x2206 'Unit1\TempControl.VRF.VRF2StartAO'</t>
+  </si>
+  <si>
+    <t>0x2206 'Unit1\TempControl.VRF.VRF2ChovrAO'</t>
+  </si>
+  <si>
+    <t>&gt; 0</t>
+  </si>
+  <si>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>0.001</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -141,6 +636,11 @@
       <family val="2"/>
       <charset val="238"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Courier New"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="6">
@@ -187,18 +687,412 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="56">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC8C8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC8C8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC8C8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC8C8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC8C8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC8C8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC8C8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC8C8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC8C8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC8C8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC8C8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC8C8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC8C8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC8C8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC8C8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC8C8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC8C8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC8C8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC8C8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC8C8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC8C8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC8C8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC8C8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC8C8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC8C8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC8C8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC8C8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC8C8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -474,16 +1368,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U21"/>
+  <dimension ref="A1:U102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="33.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" customWidth="1"/>
+    <col min="2" max="2" width="23.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.21875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.5546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.21875" bestFit="1" customWidth="1"/>
@@ -685,11 +1579,3237 @@
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>4</v>
+      </c>
+      <c r="E21">
+        <v>802</v>
+      </c>
+      <c r="F21" t="s">
+        <v>196</v>
+      </c>
+      <c r="G21" t="s">
+        <v>193</v>
+      </c>
+      <c r="H21" t="s">
+        <v>196</v>
+      </c>
+      <c r="I21">
+        <v>3</v>
+      </c>
+      <c r="J21">
+        <v>33</v>
+      </c>
+      <c r="K21" t="s">
+        <v>194</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A22" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="B22" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>833</v>
+      </c>
+      <c r="F22" t="s">
+        <v>196</v>
+      </c>
+      <c r="G22" t="s">
+        <v>196</v>
+      </c>
+      <c r="H22" t="s">
+        <v>196</v>
+      </c>
+      <c r="I22">
+        <v>3</v>
+      </c>
+      <c r="J22">
+        <v>41</v>
+      </c>
+      <c r="K22" t="s">
+        <v>195</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A23" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B23" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23">
+        <v>3</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>834</v>
+      </c>
+      <c r="F23" t="s">
+        <v>196</v>
+      </c>
+      <c r="G23" t="s">
+        <v>196</v>
+      </c>
+      <c r="H23" t="s">
+        <v>196</v>
+      </c>
+      <c r="I23">
+        <v>3</v>
+      </c>
+      <c r="J23">
+        <v>42</v>
+      </c>
+      <c r="K23" t="s">
+        <v>195</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A24" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B24" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24">
+        <v>4</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>835</v>
+      </c>
+      <c r="F24" t="s">
+        <v>196</v>
+      </c>
+      <c r="G24" t="s">
+        <v>196</v>
+      </c>
+      <c r="H24" t="s">
+        <v>196</v>
+      </c>
+      <c r="I24">
+        <v>3</v>
+      </c>
+      <c r="J24">
+        <v>43</v>
+      </c>
+      <c r="K24" t="s">
+        <v>195</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A25" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="B25" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25">
+        <v>5</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>836</v>
+      </c>
+      <c r="F25" t="s">
+        <v>196</v>
+      </c>
+      <c r="G25" t="s">
+        <v>196</v>
+      </c>
+      <c r="H25" t="s">
+        <v>196</v>
+      </c>
+      <c r="I25">
+        <v>3</v>
+      </c>
+      <c r="J25">
+        <v>44</v>
+      </c>
+      <c r="K25" t="s">
+        <v>195</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A26" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="B26" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26">
+        <v>6</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>837</v>
+      </c>
+      <c r="F26" t="s">
+        <v>196</v>
+      </c>
+      <c r="G26" t="s">
+        <v>196</v>
+      </c>
+      <c r="H26" t="s">
+        <v>196</v>
+      </c>
+      <c r="I26">
+        <v>3</v>
+      </c>
+      <c r="J26">
+        <v>45</v>
+      </c>
+      <c r="K26" t="s">
+        <v>195</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A27" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="B27" t="s">
+        <v>39</v>
+      </c>
+      <c r="C27">
+        <v>7</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>838</v>
+      </c>
+      <c r="F27" t="s">
+        <v>196</v>
+      </c>
+      <c r="G27" t="s">
+        <v>196</v>
+      </c>
+      <c r="H27" t="s">
+        <v>196</v>
+      </c>
+      <c r="I27">
+        <v>3</v>
+      </c>
+      <c r="J27">
+        <v>46</v>
+      </c>
+      <c r="K27" t="s">
+        <v>195</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A28" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="B28" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28">
+        <v>8</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>839</v>
+      </c>
+      <c r="F28" t="s">
+        <v>196</v>
+      </c>
+      <c r="G28" t="s">
+        <v>196</v>
+      </c>
+      <c r="H28" t="s">
+        <v>196</v>
+      </c>
+      <c r="I28">
+        <v>3</v>
+      </c>
+      <c r="J28">
+        <v>47</v>
+      </c>
+      <c r="K28" t="s">
+        <v>195</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A29" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="B29" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29">
+        <v>9</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>840</v>
+      </c>
+      <c r="F29" t="s">
+        <v>196</v>
+      </c>
+      <c r="G29" t="s">
+        <v>196</v>
+      </c>
+      <c r="H29" t="s">
+        <v>196</v>
+      </c>
+      <c r="I29">
+        <v>3</v>
+      </c>
+      <c r="J29">
+        <v>48</v>
+      </c>
+      <c r="K29" t="s">
+        <v>195</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A30" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="B30" t="s">
+        <v>42</v>
+      </c>
+      <c r="C30">
+        <v>10</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>841</v>
+      </c>
+      <c r="F30" t="s">
+        <v>196</v>
+      </c>
+      <c r="G30" t="s">
+        <v>196</v>
+      </c>
+      <c r="H30" t="s">
+        <v>196</v>
+      </c>
+      <c r="I30">
+        <v>3</v>
+      </c>
+      <c r="J30">
+        <v>49</v>
+      </c>
+      <c r="K30" t="s">
+        <v>195</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A31" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B31" t="s">
+        <v>43</v>
+      </c>
+      <c r="C31">
+        <v>11</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>842</v>
+      </c>
+      <c r="F31" t="s">
+        <v>196</v>
+      </c>
+      <c r="G31" t="s">
+        <v>196</v>
+      </c>
+      <c r="H31" t="s">
+        <v>196</v>
+      </c>
+      <c r="I31">
+        <v>3</v>
+      </c>
+      <c r="J31">
+        <v>50</v>
+      </c>
+      <c r="K31" t="s">
+        <v>195</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A32" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B32" t="s">
+        <v>44</v>
+      </c>
+      <c r="C32">
+        <v>12</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>843</v>
+      </c>
+      <c r="F32" t="s">
+        <v>196</v>
+      </c>
+      <c r="G32" t="s">
+        <v>196</v>
+      </c>
+      <c r="H32" t="s">
+        <v>196</v>
+      </c>
+      <c r="I32">
+        <v>3</v>
+      </c>
+      <c r="J32">
+        <v>51</v>
+      </c>
+      <c r="K32" t="s">
+        <v>195</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A33" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="B33" t="s">
+        <v>45</v>
+      </c>
+      <c r="C33">
+        <v>13</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>844</v>
+      </c>
+      <c r="F33" t="s">
+        <v>196</v>
+      </c>
+      <c r="G33" t="s">
+        <v>196</v>
+      </c>
+      <c r="H33" t="s">
+        <v>196</v>
+      </c>
+      <c r="I33">
+        <v>3</v>
+      </c>
+      <c r="J33">
+        <v>52</v>
+      </c>
+      <c r="K33" t="s">
+        <v>195</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A34" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="B34" t="s">
+        <v>46</v>
+      </c>
+      <c r="C34">
+        <v>14</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>845</v>
+      </c>
+      <c r="F34" t="s">
+        <v>196</v>
+      </c>
+      <c r="G34" t="s">
+        <v>196</v>
+      </c>
+      <c r="H34" t="s">
+        <v>196</v>
+      </c>
+      <c r="I34">
+        <v>3</v>
+      </c>
+      <c r="J34">
+        <v>53</v>
+      </c>
+      <c r="K34" t="s">
+        <v>195</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A35" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="B35" t="s">
+        <v>47</v>
+      </c>
+      <c r="C35">
+        <v>15</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>846</v>
+      </c>
+      <c r="F35" t="s">
+        <v>196</v>
+      </c>
+      <c r="G35" t="s">
+        <v>196</v>
+      </c>
+      <c r="H35" t="s">
+        <v>196</v>
+      </c>
+      <c r="I35">
+        <v>3</v>
+      </c>
+      <c r="J35">
+        <v>54</v>
+      </c>
+      <c r="K35" t="s">
+        <v>195</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A36" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B36" t="s">
+        <v>48</v>
+      </c>
+      <c r="C36">
+        <v>16</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36">
+        <v>847</v>
+      </c>
+      <c r="F36" t="s">
+        <v>196</v>
+      </c>
+      <c r="G36" t="s">
+        <v>196</v>
+      </c>
+      <c r="H36" t="s">
+        <v>196</v>
+      </c>
+      <c r="I36">
+        <v>3</v>
+      </c>
+      <c r="J36">
+        <v>55</v>
+      </c>
+      <c r="K36" t="s">
+        <v>195</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A37" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="B37" t="s">
+        <v>49</v>
+      </c>
+      <c r="C37">
+        <v>17</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37">
+        <v>848</v>
+      </c>
+      <c r="F37" t="s">
+        <v>196</v>
+      </c>
+      <c r="G37" t="s">
+        <v>196</v>
+      </c>
+      <c r="H37" t="s">
+        <v>196</v>
+      </c>
+      <c r="I37">
+        <v>3</v>
+      </c>
+      <c r="J37">
+        <v>56</v>
+      </c>
+      <c r="K37" t="s">
+        <v>195</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A38" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="B38" t="s">
+        <v>50</v>
+      </c>
+      <c r="C38">
+        <v>18</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <v>849</v>
+      </c>
+      <c r="F38" t="s">
+        <v>196</v>
+      </c>
+      <c r="G38" t="s">
+        <v>196</v>
+      </c>
+      <c r="H38" t="s">
+        <v>196</v>
+      </c>
+      <c r="I38">
+        <v>3</v>
+      </c>
+      <c r="J38">
+        <v>57</v>
+      </c>
+      <c r="K38" t="s">
+        <v>195</v>
+      </c>
+      <c r="L38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A39" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="B39" t="s">
+        <v>51</v>
+      </c>
+      <c r="C39">
+        <v>19</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <v>850</v>
+      </c>
+      <c r="F39" t="s">
+        <v>196</v>
+      </c>
+      <c r="G39" t="s">
+        <v>196</v>
+      </c>
+      <c r="H39" t="s">
+        <v>196</v>
+      </c>
+      <c r="I39">
+        <v>3</v>
+      </c>
+      <c r="J39">
+        <v>58</v>
+      </c>
+      <c r="K39" t="s">
+        <v>195</v>
+      </c>
+      <c r="L39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A40" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="B40" t="s">
+        <v>52</v>
+      </c>
+      <c r="C40">
+        <v>20</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>851</v>
+      </c>
+      <c r="F40" t="s">
+        <v>196</v>
+      </c>
+      <c r="G40" t="s">
+        <v>196</v>
+      </c>
+      <c r="H40" t="s">
+        <v>196</v>
+      </c>
+      <c r="I40">
+        <v>3</v>
+      </c>
+      <c r="J40">
+        <v>59</v>
+      </c>
+      <c r="K40" t="s">
+        <v>195</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A41" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="B41" t="s">
+        <v>53</v>
+      </c>
+      <c r="C41">
+        <v>21</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <v>852</v>
+      </c>
+      <c r="F41" t="s">
+        <v>196</v>
+      </c>
+      <c r="G41" t="s">
+        <v>196</v>
+      </c>
+      <c r="H41" t="s">
+        <v>196</v>
+      </c>
+      <c r="I41">
+        <v>3</v>
+      </c>
+      <c r="J41">
+        <v>60</v>
+      </c>
+      <c r="K41" t="s">
+        <v>195</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A42" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="B42" t="s">
+        <v>54</v>
+      </c>
+      <c r="C42">
+        <v>22</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42">
+        <v>853</v>
+      </c>
+      <c r="F42" t="s">
+        <v>196</v>
+      </c>
+      <c r="G42" t="s">
+        <v>196</v>
+      </c>
+      <c r="H42" t="s">
+        <v>196</v>
+      </c>
+      <c r="I42">
+        <v>3</v>
+      </c>
+      <c r="J42">
+        <v>61</v>
+      </c>
+      <c r="K42" t="s">
+        <v>195</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A43" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="B43" t="s">
+        <v>55</v>
+      </c>
+      <c r="C43">
+        <v>23</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43">
+        <v>854</v>
+      </c>
+      <c r="F43" t="s">
+        <v>196</v>
+      </c>
+      <c r="G43" t="s">
+        <v>196</v>
+      </c>
+      <c r="H43" t="s">
+        <v>196</v>
+      </c>
+      <c r="I43">
+        <v>3</v>
+      </c>
+      <c r="J43">
+        <v>62</v>
+      </c>
+      <c r="K43" t="s">
+        <v>195</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A44" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="B44" t="s">
+        <v>56</v>
+      </c>
+      <c r="C44">
+        <v>24</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <v>851</v>
+      </c>
+      <c r="F44" t="s">
+        <v>196</v>
+      </c>
+      <c r="G44" t="s">
+        <v>196</v>
+      </c>
+      <c r="H44" t="s">
+        <v>196</v>
+      </c>
+      <c r="I44">
+        <v>3</v>
+      </c>
+      <c r="J44">
+        <v>63</v>
+      </c>
+      <c r="K44" t="s">
+        <v>195</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A45" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="B45" t="s">
+        <v>57</v>
+      </c>
+      <c r="C45">
+        <v>25</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45">
+        <v>851</v>
+      </c>
+      <c r="F45" t="s">
+        <v>196</v>
+      </c>
+      <c r="G45" t="s">
+        <v>196</v>
+      </c>
+      <c r="H45" t="s">
+        <v>196</v>
+      </c>
+      <c r="I45">
+        <v>3</v>
+      </c>
+      <c r="J45">
+        <v>64</v>
+      </c>
+      <c r="K45" t="s">
+        <v>195</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A46" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="B46" t="s">
+        <v>58</v>
+      </c>
+      <c r="C46">
+        <v>26</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46">
+        <v>852</v>
+      </c>
+      <c r="F46" t="s">
+        <v>196</v>
+      </c>
+      <c r="G46" t="s">
+        <v>196</v>
+      </c>
+      <c r="H46" t="s">
+        <v>196</v>
+      </c>
+      <c r="I46">
+        <v>3</v>
+      </c>
+      <c r="J46">
+        <v>65</v>
+      </c>
+      <c r="K46" t="s">
+        <v>195</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A47" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="B47" t="s">
+        <v>59</v>
+      </c>
+      <c r="C47">
+        <v>27</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47">
+        <v>852</v>
+      </c>
+      <c r="F47" t="s">
+        <v>196</v>
+      </c>
+      <c r="G47" t="s">
+        <v>196</v>
+      </c>
+      <c r="H47" t="s">
+        <v>196</v>
+      </c>
+      <c r="I47">
+        <v>3</v>
+      </c>
+      <c r="J47">
+        <v>66</v>
+      </c>
+      <c r="K47" t="s">
+        <v>195</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A48" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="B48" t="s">
+        <v>60</v>
+      </c>
+      <c r="C48">
+        <v>28</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48">
+        <v>853</v>
+      </c>
+      <c r="F48" t="s">
+        <v>196</v>
+      </c>
+      <c r="G48" t="s">
+        <v>196</v>
+      </c>
+      <c r="H48" t="s">
+        <v>196</v>
+      </c>
+      <c r="I48">
+        <v>3</v>
+      </c>
+      <c r="J48">
+        <v>67</v>
+      </c>
+      <c r="K48" t="s">
+        <v>195</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A49" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="B49" t="s">
+        <v>61</v>
+      </c>
+      <c r="C49">
+        <v>29</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49">
+        <v>853</v>
+      </c>
+      <c r="F49" t="s">
+        <v>196</v>
+      </c>
+      <c r="G49" t="s">
+        <v>196</v>
+      </c>
+      <c r="H49" t="s">
+        <v>196</v>
+      </c>
+      <c r="I49">
+        <v>3</v>
+      </c>
+      <c r="J49">
+        <v>68</v>
+      </c>
+      <c r="K49" t="s">
+        <v>195</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A50" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="B50" t="s">
+        <v>62</v>
+      </c>
+      <c r="C50">
+        <v>30</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="E50">
+        <v>855</v>
+      </c>
+      <c r="F50" t="s">
+        <v>196</v>
+      </c>
+      <c r="G50" t="s">
+        <v>196</v>
+      </c>
+      <c r="H50" t="s">
+        <v>196</v>
+      </c>
+      <c r="I50">
+        <v>3</v>
+      </c>
+      <c r="J50">
+        <v>69</v>
+      </c>
+      <c r="K50" t="s">
+        <v>194</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A51" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B51" t="s">
+        <v>63</v>
+      </c>
+      <c r="C51">
+        <v>31</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="E51">
+        <v>856</v>
+      </c>
+      <c r="F51" t="s">
+        <v>196</v>
+      </c>
+      <c r="G51" t="s">
+        <v>196</v>
+      </c>
+      <c r="H51" t="s">
+        <v>196</v>
+      </c>
+      <c r="I51">
+        <v>3</v>
+      </c>
+      <c r="J51">
+        <v>70</v>
+      </c>
+      <c r="K51" t="s">
+        <v>194</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A52" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="B52" t="s">
+        <v>64</v>
+      </c>
+      <c r="C52">
         <v>32</v>
       </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="E52">
+        <v>857</v>
+      </c>
+      <c r="F52" t="s">
+        <v>196</v>
+      </c>
+      <c r="G52" t="s">
+        <v>196</v>
+      </c>
+      <c r="H52" t="s">
+        <v>196</v>
+      </c>
+      <c r="I52">
+        <v>3</v>
+      </c>
+      <c r="J52">
+        <v>71</v>
+      </c>
+      <c r="K52" t="s">
+        <v>194</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A53" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="B53" t="s">
+        <v>65</v>
+      </c>
+      <c r="C53">
+        <v>33</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53">
+        <v>858</v>
+      </c>
+      <c r="F53" t="s">
+        <v>196</v>
+      </c>
+      <c r="G53" t="s">
+        <v>196</v>
+      </c>
+      <c r="H53" t="s">
+        <v>196</v>
+      </c>
+      <c r="I53">
+        <v>3</v>
+      </c>
+      <c r="J53">
+        <v>72</v>
+      </c>
+      <c r="K53" t="s">
+        <v>194</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A54" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="B54" t="s">
+        <v>66</v>
+      </c>
+      <c r="C54">
+        <v>34</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+      <c r="E54">
+        <v>859</v>
+      </c>
+      <c r="F54" t="s">
+        <v>196</v>
+      </c>
+      <c r="G54" t="s">
+        <v>196</v>
+      </c>
+      <c r="H54" t="s">
+        <v>196</v>
+      </c>
+      <c r="I54">
+        <v>3</v>
+      </c>
+      <c r="J54">
+        <v>73</v>
+      </c>
+      <c r="K54" t="s">
+        <v>194</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A55" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="B55" t="s">
+        <v>67</v>
+      </c>
+      <c r="C55">
+        <v>35</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+      <c r="E55">
+        <v>860</v>
+      </c>
+      <c r="F55" t="s">
+        <v>196</v>
+      </c>
+      <c r="G55" t="s">
+        <v>196</v>
+      </c>
+      <c r="H55" t="s">
+        <v>196</v>
+      </c>
+      <c r="I55">
+        <v>3</v>
+      </c>
+      <c r="J55">
+        <v>74</v>
+      </c>
+      <c r="K55" t="s">
+        <v>194</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A56" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="B56" t="s">
+        <v>68</v>
+      </c>
+      <c r="C56">
+        <v>36</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="E56">
+        <v>861</v>
+      </c>
+      <c r="F56" t="s">
+        <v>196</v>
+      </c>
+      <c r="G56" t="s">
+        <v>196</v>
+      </c>
+      <c r="H56" t="s">
+        <v>196</v>
+      </c>
+      <c r="I56">
+        <v>3</v>
+      </c>
+      <c r="J56">
+        <v>75</v>
+      </c>
+      <c r="K56" t="s">
+        <v>194</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A57" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B57" t="s">
+        <v>69</v>
+      </c>
+      <c r="C57">
+        <v>37</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+      <c r="E57">
+        <v>862</v>
+      </c>
+      <c r="F57" t="s">
+        <v>196</v>
+      </c>
+      <c r="G57" t="s">
+        <v>196</v>
+      </c>
+      <c r="H57" t="s">
+        <v>196</v>
+      </c>
+      <c r="I57">
+        <v>3</v>
+      </c>
+      <c r="J57">
+        <v>76</v>
+      </c>
+      <c r="K57" t="s">
+        <v>194</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A58" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="B58" t="s">
+        <v>70</v>
+      </c>
+      <c r="C58">
+        <v>38</v>
+      </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
+      <c r="E58">
+        <v>863</v>
+      </c>
+      <c r="F58" t="s">
+        <v>196</v>
+      </c>
+      <c r="G58" t="s">
+        <v>196</v>
+      </c>
+      <c r="H58" t="s">
+        <v>196</v>
+      </c>
+      <c r="I58">
+        <v>3</v>
+      </c>
+      <c r="J58">
+        <v>77</v>
+      </c>
+      <c r="K58" t="s">
+        <v>194</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A59" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="B59" t="s">
+        <v>71</v>
+      </c>
+      <c r="C59">
+        <v>39</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+      <c r="E59">
+        <v>864</v>
+      </c>
+      <c r="F59" t="s">
+        <v>196</v>
+      </c>
+      <c r="G59" t="s">
+        <v>196</v>
+      </c>
+      <c r="H59" t="s">
+        <v>196</v>
+      </c>
+      <c r="I59">
+        <v>3</v>
+      </c>
+      <c r="J59">
+        <v>78</v>
+      </c>
+      <c r="K59" t="s">
+        <v>194</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A60" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="B60" t="s">
+        <v>72</v>
+      </c>
+      <c r="C60">
+        <v>40</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+      <c r="E60">
+        <v>865</v>
+      </c>
+      <c r="F60" t="s">
+        <v>196</v>
+      </c>
+      <c r="G60" t="s">
+        <v>196</v>
+      </c>
+      <c r="H60" t="s">
+        <v>196</v>
+      </c>
+      <c r="I60">
+        <v>3</v>
+      </c>
+      <c r="J60">
+        <v>79</v>
+      </c>
+      <c r="K60" t="s">
+        <v>194</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A61" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="B61" t="s">
+        <v>73</v>
+      </c>
+      <c r="C61">
+        <v>41</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+      <c r="E61">
+        <v>866</v>
+      </c>
+      <c r="F61" t="s">
+        <v>196</v>
+      </c>
+      <c r="G61" t="s">
+        <v>196</v>
+      </c>
+      <c r="H61" t="s">
+        <v>196</v>
+      </c>
+      <c r="I61">
+        <v>3</v>
+      </c>
+      <c r="J61">
+        <v>80</v>
+      </c>
+      <c r="K61" t="s">
+        <v>194</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A62" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="B62" t="s">
+        <v>74</v>
+      </c>
+      <c r="C62">
+        <v>42</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+      <c r="E62">
+        <v>867</v>
+      </c>
+      <c r="F62" t="s">
+        <v>196</v>
+      </c>
+      <c r="G62" t="s">
+        <v>196</v>
+      </c>
+      <c r="H62" t="s">
+        <v>196</v>
+      </c>
+      <c r="I62">
+        <v>3</v>
+      </c>
+      <c r="J62">
+        <v>81</v>
+      </c>
+      <c r="K62" t="s">
+        <v>194</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A63" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="B63" t="s">
+        <v>75</v>
+      </c>
+      <c r="C63">
+        <v>43</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+      <c r="E63">
+        <v>868</v>
+      </c>
+      <c r="F63" t="s">
+        <v>196</v>
+      </c>
+      <c r="G63" t="s">
+        <v>196</v>
+      </c>
+      <c r="H63" t="s">
+        <v>196</v>
+      </c>
+      <c r="I63">
+        <v>3</v>
+      </c>
+      <c r="J63">
+        <v>82</v>
+      </c>
+      <c r="K63" t="s">
+        <v>194</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A64" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="B64" t="s">
+        <v>76</v>
+      </c>
+      <c r="C64">
+        <v>44</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
+      <c r="E64">
+        <v>869</v>
+      </c>
+      <c r="F64" t="s">
+        <v>196</v>
+      </c>
+      <c r="G64" t="s">
+        <v>196</v>
+      </c>
+      <c r="H64" t="s">
+        <v>196</v>
+      </c>
+      <c r="I64">
+        <v>3</v>
+      </c>
+      <c r="J64">
+        <v>83</v>
+      </c>
+      <c r="K64" t="s">
+        <v>194</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A65" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="B65" t="s">
+        <v>77</v>
+      </c>
+      <c r="C65">
+        <v>45</v>
+      </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
+      <c r="E65">
+        <v>870</v>
+      </c>
+      <c r="F65" t="s">
+        <v>196</v>
+      </c>
+      <c r="G65" t="s">
+        <v>196</v>
+      </c>
+      <c r="H65" t="s">
+        <v>196</v>
+      </c>
+      <c r="I65">
+        <v>3</v>
+      </c>
+      <c r="J65">
+        <v>84</v>
+      </c>
+      <c r="K65" t="s">
+        <v>194</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A66" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="B66" t="s">
+        <v>78</v>
+      </c>
+      <c r="C66">
+        <v>46</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
+      <c r="E66">
+        <v>871</v>
+      </c>
+      <c r="F66" t="s">
+        <v>196</v>
+      </c>
+      <c r="G66" t="s">
+        <v>196</v>
+      </c>
+      <c r="H66" t="s">
+        <v>196</v>
+      </c>
+      <c r="I66">
+        <v>3</v>
+      </c>
+      <c r="J66">
+        <v>85</v>
+      </c>
+      <c r="K66" t="s">
+        <v>194</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A67" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="B67" t="s">
+        <v>79</v>
+      </c>
+      <c r="C67">
+        <v>47</v>
+      </c>
+      <c r="D67">
+        <v>1</v>
+      </c>
+      <c r="E67">
+        <v>872</v>
+      </c>
+      <c r="F67" t="s">
+        <v>196</v>
+      </c>
+      <c r="G67" t="s">
+        <v>196</v>
+      </c>
+      <c r="H67" t="s">
+        <v>196</v>
+      </c>
+      <c r="I67">
+        <v>3</v>
+      </c>
+      <c r="J67">
+        <v>87</v>
+      </c>
+      <c r="K67" t="s">
+        <v>194</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A68" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="B68" t="s">
+        <v>68</v>
+      </c>
+      <c r="C68">
+        <v>48</v>
+      </c>
+      <c r="D68">
+        <v>1</v>
+      </c>
+      <c r="E68">
+        <v>873</v>
+      </c>
+      <c r="F68" t="s">
+        <v>196</v>
+      </c>
+      <c r="G68" t="s">
+        <v>196</v>
+      </c>
+      <c r="H68" t="s">
+        <v>196</v>
+      </c>
+      <c r="I68">
+        <v>3</v>
+      </c>
+      <c r="J68">
+        <v>89</v>
+      </c>
+      <c r="K68" t="s">
+        <v>194</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A69" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="B69" t="s">
+        <v>69</v>
+      </c>
+      <c r="C69">
+        <v>49</v>
+      </c>
+      <c r="D69">
+        <v>1</v>
+      </c>
+      <c r="E69">
+        <v>874</v>
+      </c>
+      <c r="F69" t="s">
+        <v>196</v>
+      </c>
+      <c r="G69" t="s">
+        <v>196</v>
+      </c>
+      <c r="H69" t="s">
+        <v>196</v>
+      </c>
+      <c r="I69">
+        <v>3</v>
+      </c>
+      <c r="J69">
+        <v>90</v>
+      </c>
+      <c r="K69" t="s">
+        <v>194</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A70" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="B70" t="s">
+        <v>80</v>
+      </c>
+      <c r="C70">
+        <v>50</v>
+      </c>
+      <c r="D70">
+        <v>1</v>
+      </c>
+      <c r="E70">
+        <v>875</v>
+      </c>
+      <c r="F70" t="s">
+        <v>196</v>
+      </c>
+      <c r="G70" t="s">
+        <v>196</v>
+      </c>
+      <c r="H70" t="s">
+        <v>196</v>
+      </c>
+      <c r="I70">
+        <v>3</v>
+      </c>
+      <c r="J70">
+        <v>91</v>
+      </c>
+      <c r="K70" t="s">
+        <v>195</v>
+      </c>
+      <c r="L70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A71" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="B71" t="s">
+        <v>81</v>
+      </c>
+      <c r="C71">
+        <v>51</v>
+      </c>
+      <c r="D71">
+        <v>1</v>
+      </c>
+      <c r="E71">
+        <v>876</v>
+      </c>
+      <c r="F71" t="s">
+        <v>196</v>
+      </c>
+      <c r="G71" t="s">
+        <v>196</v>
+      </c>
+      <c r="H71" t="s">
+        <v>196</v>
+      </c>
+      <c r="I71">
+        <v>3</v>
+      </c>
+      <c r="J71">
+        <v>92</v>
+      </c>
+      <c r="K71" t="s">
+        <v>195</v>
+      </c>
+      <c r="L71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A72" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="B72" t="s">
+        <v>82</v>
+      </c>
+      <c r="C72">
+        <v>52</v>
+      </c>
+      <c r="D72" t="s">
+        <v>196</v>
+      </c>
+      <c r="E72" t="s">
+        <v>196</v>
+      </c>
+      <c r="F72">
+        <v>2</v>
+      </c>
+      <c r="H72">
+        <v>23</v>
+      </c>
+      <c r="I72">
+        <v>3</v>
+      </c>
+      <c r="J72">
+        <v>131</v>
+      </c>
+      <c r="K72" t="s">
+        <v>194</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A73" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="B73" t="s">
+        <v>83</v>
+      </c>
+      <c r="C73">
+        <v>53</v>
+      </c>
+      <c r="D73" t="s">
+        <v>196</v>
+      </c>
+      <c r="E73" t="s">
+        <v>196</v>
+      </c>
+      <c r="F73">
+        <v>2</v>
+      </c>
+      <c r="H73">
+        <v>23</v>
+      </c>
+      <c r="I73">
+        <v>3</v>
+      </c>
+      <c r="J73">
+        <v>132</v>
+      </c>
+      <c r="K73" t="s">
+        <v>197</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A74" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="B74" t="s">
+        <v>84</v>
+      </c>
+      <c r="C74">
+        <v>54</v>
+      </c>
+      <c r="D74" t="s">
+        <v>196</v>
+      </c>
+      <c r="E74" t="s">
+        <v>196</v>
+      </c>
+      <c r="F74">
+        <v>2</v>
+      </c>
+      <c r="H74">
+        <v>24</v>
+      </c>
+      <c r="I74">
+        <v>3</v>
+      </c>
+      <c r="J74">
+        <v>146</v>
+      </c>
+      <c r="K74" t="s">
+        <v>194</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A75" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="B75" t="s">
+        <v>85</v>
+      </c>
+      <c r="C75">
+        <v>55</v>
+      </c>
+      <c r="D75" t="s">
+        <v>196</v>
+      </c>
+      <c r="E75" t="s">
+        <v>196</v>
+      </c>
+      <c r="F75">
+        <v>2</v>
+      </c>
+      <c r="H75">
+        <v>24</v>
+      </c>
+      <c r="I75">
+        <v>3</v>
+      </c>
+      <c r="J75">
+        <v>147</v>
+      </c>
+      <c r="K75" t="s">
+        <v>197</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A76" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="B76" t="s">
+        <v>86</v>
+      </c>
+      <c r="C76">
+        <v>76</v>
+      </c>
+      <c r="D76">
+        <v>1</v>
+      </c>
+      <c r="E76">
+        <v>920</v>
+      </c>
+      <c r="F76" t="s">
+        <v>196</v>
+      </c>
+      <c r="G76" t="s">
+        <v>196</v>
+      </c>
+      <c r="H76" t="s">
+        <v>196</v>
+      </c>
+      <c r="I76">
+        <v>3</v>
+      </c>
+      <c r="J76">
+        <v>161</v>
+      </c>
+      <c r="K76" t="s">
+        <v>195</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A77" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="B77" t="s">
+        <v>87</v>
+      </c>
+      <c r="C77">
+        <v>77</v>
+      </c>
+      <c r="D77">
+        <v>1</v>
+      </c>
+      <c r="E77">
+        <v>921</v>
+      </c>
+      <c r="F77" t="s">
+        <v>196</v>
+      </c>
+      <c r="G77" t="s">
+        <v>196</v>
+      </c>
+      <c r="H77" t="s">
+        <v>196</v>
+      </c>
+      <c r="I77">
+        <v>3</v>
+      </c>
+      <c r="J77">
+        <v>162</v>
+      </c>
+      <c r="K77" t="s">
+        <v>195</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A78" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="B78" t="s">
+        <v>88</v>
+      </c>
+      <c r="C78">
+        <v>78</v>
+      </c>
+      <c r="D78">
+        <v>1</v>
+      </c>
+      <c r="E78">
+        <v>922</v>
+      </c>
+      <c r="F78" t="s">
+        <v>196</v>
+      </c>
+      <c r="G78" t="s">
+        <v>196</v>
+      </c>
+      <c r="H78" t="s">
+        <v>196</v>
+      </c>
+      <c r="I78">
+        <v>3</v>
+      </c>
+      <c r="J78">
+        <v>163</v>
+      </c>
+      <c r="K78" t="s">
+        <v>195</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A79" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="B79" t="s">
+        <v>89</v>
+      </c>
+      <c r="C79">
+        <v>79</v>
+      </c>
+      <c r="D79">
+        <v>1</v>
+      </c>
+      <c r="E79">
+        <v>923</v>
+      </c>
+      <c r="F79" t="s">
+        <v>196</v>
+      </c>
+      <c r="G79" t="s">
+        <v>196</v>
+      </c>
+      <c r="H79" t="s">
+        <v>196</v>
+      </c>
+      <c r="I79">
+        <v>3</v>
+      </c>
+      <c r="J79">
+        <v>164</v>
+      </c>
+      <c r="K79" t="s">
+        <v>195</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A80" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="B80" t="s">
+        <v>90</v>
+      </c>
+      <c r="C80">
+        <v>80</v>
+      </c>
+      <c r="D80">
+        <v>1</v>
+      </c>
+      <c r="E80">
+        <v>924</v>
+      </c>
+      <c r="F80" t="s">
+        <v>196</v>
+      </c>
+      <c r="G80" t="s">
+        <v>196</v>
+      </c>
+      <c r="H80" t="s">
+        <v>196</v>
+      </c>
+      <c r="I80">
+        <v>3</v>
+      </c>
+      <c r="J80">
+        <v>165</v>
+      </c>
+      <c r="K80" t="s">
+        <v>195</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A81" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="B81" t="s">
+        <v>91</v>
+      </c>
+      <c r="C81">
+        <v>81</v>
+      </c>
+      <c r="D81">
+        <v>1</v>
+      </c>
+      <c r="E81">
+        <v>925</v>
+      </c>
+      <c r="F81" t="s">
+        <v>196</v>
+      </c>
+      <c r="G81" t="s">
+        <v>196</v>
+      </c>
+      <c r="H81" t="s">
+        <v>196</v>
+      </c>
+      <c r="I81">
+        <v>3</v>
+      </c>
+      <c r="J81">
+        <v>166</v>
+      </c>
+      <c r="K81" t="s">
+        <v>195</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A82" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="B82" t="s">
+        <v>92</v>
+      </c>
+      <c r="C82">
+        <v>82</v>
+      </c>
+      <c r="D82">
+        <v>1</v>
+      </c>
+      <c r="E82">
+        <v>926</v>
+      </c>
+      <c r="F82" t="s">
+        <v>196</v>
+      </c>
+      <c r="G82" t="s">
+        <v>196</v>
+      </c>
+      <c r="H82" t="s">
+        <v>196</v>
+      </c>
+      <c r="I82">
+        <v>3</v>
+      </c>
+      <c r="J82">
+        <v>167</v>
+      </c>
+      <c r="K82" t="s">
+        <v>195</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A83" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="B83" t="s">
+        <v>93</v>
+      </c>
+      <c r="C83">
+        <v>83</v>
+      </c>
+      <c r="D83">
+        <v>1</v>
+      </c>
+      <c r="E83">
+        <v>927</v>
+      </c>
+      <c r="F83" t="s">
+        <v>196</v>
+      </c>
+      <c r="G83" t="s">
+        <v>196</v>
+      </c>
+      <c r="H83" t="s">
+        <v>196</v>
+      </c>
+      <c r="I83">
+        <v>3</v>
+      </c>
+      <c r="J83">
+        <v>168</v>
+      </c>
+      <c r="K83" t="s">
+        <v>195</v>
+      </c>
+      <c r="L83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A84" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="B84" t="s">
+        <v>94</v>
+      </c>
+      <c r="C84">
+        <v>84</v>
+      </c>
+      <c r="D84">
+        <v>1</v>
+      </c>
+      <c r="E84">
+        <v>928</v>
+      </c>
+      <c r="F84" t="s">
+        <v>196</v>
+      </c>
+      <c r="G84" t="s">
+        <v>196</v>
+      </c>
+      <c r="H84" t="s">
+        <v>196</v>
+      </c>
+      <c r="I84">
+        <v>3</v>
+      </c>
+      <c r="J84">
+        <v>169</v>
+      </c>
+      <c r="K84" t="s">
+        <v>195</v>
+      </c>
+      <c r="L84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A85" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="B85" t="s">
+        <v>95</v>
+      </c>
+      <c r="C85">
+        <v>85</v>
+      </c>
+      <c r="D85">
+        <v>1</v>
+      </c>
+      <c r="E85">
+        <v>929</v>
+      </c>
+      <c r="F85" t="s">
+        <v>196</v>
+      </c>
+      <c r="G85" t="s">
+        <v>196</v>
+      </c>
+      <c r="H85" t="s">
+        <v>196</v>
+      </c>
+      <c r="I85">
+        <v>3</v>
+      </c>
+      <c r="J85">
+        <v>170</v>
+      </c>
+      <c r="K85" t="s">
+        <v>195</v>
+      </c>
+      <c r="L85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A86" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="B86" t="s">
+        <v>96</v>
+      </c>
+      <c r="C86">
+        <v>86</v>
+      </c>
+      <c r="D86">
+        <v>1</v>
+      </c>
+      <c r="E86">
+        <v>930</v>
+      </c>
+      <c r="F86" t="s">
+        <v>196</v>
+      </c>
+      <c r="G86" t="s">
+        <v>196</v>
+      </c>
+      <c r="H86" t="s">
+        <v>196</v>
+      </c>
+      <c r="I86">
+        <v>3</v>
+      </c>
+      <c r="J86">
+        <v>171</v>
+      </c>
+      <c r="K86" t="s">
+        <v>195</v>
+      </c>
+      <c r="L86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A87" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="B87" t="s">
+        <v>97</v>
+      </c>
+      <c r="C87">
+        <v>87</v>
+      </c>
+      <c r="D87">
+        <v>1</v>
+      </c>
+      <c r="E87">
+        <v>931</v>
+      </c>
+      <c r="F87" t="s">
+        <v>196</v>
+      </c>
+      <c r="G87" t="s">
+        <v>196</v>
+      </c>
+      <c r="H87" t="s">
+        <v>196</v>
+      </c>
+      <c r="I87">
+        <v>3</v>
+      </c>
+      <c r="J87">
+        <v>172</v>
+      </c>
+      <c r="K87" t="s">
+        <v>195</v>
+      </c>
+      <c r="L87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A88" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="B88" t="s">
+        <v>98</v>
+      </c>
+      <c r="C88">
+        <v>88</v>
+      </c>
+      <c r="D88">
+        <v>1</v>
+      </c>
+      <c r="E88">
+        <v>932</v>
+      </c>
+      <c r="F88" t="s">
+        <v>196</v>
+      </c>
+      <c r="G88" t="s">
+        <v>196</v>
+      </c>
+      <c r="H88" t="s">
+        <v>196</v>
+      </c>
+      <c r="I88">
+        <v>3</v>
+      </c>
+      <c r="J88">
+        <v>173</v>
+      </c>
+      <c r="K88" t="s">
+        <v>195</v>
+      </c>
+      <c r="L88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A89" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="B89" t="s">
+        <v>99</v>
+      </c>
+      <c r="C89">
+        <v>89</v>
+      </c>
+      <c r="D89">
+        <v>1</v>
+      </c>
+      <c r="E89">
+        <v>933</v>
+      </c>
+      <c r="F89" t="s">
+        <v>196</v>
+      </c>
+      <c r="G89" t="s">
+        <v>196</v>
+      </c>
+      <c r="H89" t="s">
+        <v>196</v>
+      </c>
+      <c r="I89">
+        <v>3</v>
+      </c>
+      <c r="J89">
+        <v>174</v>
+      </c>
+      <c r="K89" t="s">
+        <v>195</v>
+      </c>
+      <c r="L89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A90" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="B90" t="s">
+        <v>100</v>
+      </c>
+      <c r="C90">
+        <v>90</v>
+      </c>
+      <c r="D90">
+        <v>1</v>
+      </c>
+      <c r="E90">
+        <v>934</v>
+      </c>
+      <c r="F90" t="s">
+        <v>196</v>
+      </c>
+      <c r="G90" t="s">
+        <v>196</v>
+      </c>
+      <c r="H90" t="s">
+        <v>196</v>
+      </c>
+      <c r="I90">
+        <v>3</v>
+      </c>
+      <c r="J90">
+        <v>175</v>
+      </c>
+      <c r="K90" t="s">
+        <v>195</v>
+      </c>
+      <c r="L90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A91" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="B91" t="s">
+        <v>101</v>
+      </c>
+      <c r="C91">
+        <v>91</v>
+      </c>
+      <c r="D91">
+        <v>1</v>
+      </c>
+      <c r="E91">
+        <v>935</v>
+      </c>
+      <c r="F91" t="s">
+        <v>196</v>
+      </c>
+      <c r="G91" t="s">
+        <v>196</v>
+      </c>
+      <c r="H91" t="s">
+        <v>196</v>
+      </c>
+      <c r="I91">
+        <v>3</v>
+      </c>
+      <c r="J91">
+        <v>176</v>
+      </c>
+      <c r="K91" t="s">
+        <v>195</v>
+      </c>
+      <c r="L91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A92" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="B92" t="s">
+        <v>102</v>
+      </c>
+      <c r="C92">
+        <v>92</v>
+      </c>
+      <c r="D92">
+        <v>1</v>
+      </c>
+      <c r="E92">
+        <v>937</v>
+      </c>
+      <c r="F92" t="s">
+        <v>196</v>
+      </c>
+      <c r="G92" t="s">
+        <v>196</v>
+      </c>
+      <c r="H92" t="s">
+        <v>196</v>
+      </c>
+      <c r="I92">
+        <v>3</v>
+      </c>
+      <c r="J92">
+        <v>178</v>
+      </c>
+      <c r="K92" t="s">
+        <v>195</v>
+      </c>
+      <c r="L92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A93" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="B93" t="s">
+        <v>103</v>
+      </c>
+      <c r="C93">
+        <v>93</v>
+      </c>
+      <c r="D93">
+        <v>1</v>
+      </c>
+      <c r="E93">
+        <v>939</v>
+      </c>
+      <c r="F93" t="s">
+        <v>196</v>
+      </c>
+      <c r="G93" t="s">
+        <v>196</v>
+      </c>
+      <c r="H93" t="s">
+        <v>196</v>
+      </c>
+      <c r="I93">
+        <v>3</v>
+      </c>
+      <c r="J93">
+        <v>180</v>
+      </c>
+      <c r="K93" t="s">
+        <v>195</v>
+      </c>
+      <c r="L93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A94" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="B94" t="s">
+        <v>104</v>
+      </c>
+      <c r="C94">
+        <v>94</v>
+      </c>
+      <c r="D94">
+        <v>1</v>
+      </c>
+      <c r="E94">
+        <v>940</v>
+      </c>
+      <c r="F94" t="s">
+        <v>196</v>
+      </c>
+      <c r="G94" t="s">
+        <v>196</v>
+      </c>
+      <c r="H94" t="s">
+        <v>196</v>
+      </c>
+      <c r="I94">
+        <v>3</v>
+      </c>
+      <c r="J94">
+        <v>181</v>
+      </c>
+      <c r="K94" t="s">
+        <v>195</v>
+      </c>
+      <c r="L94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A95" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="B95" t="s">
+        <v>105</v>
+      </c>
+      <c r="C95">
+        <v>95</v>
+      </c>
+      <c r="D95">
+        <v>1</v>
+      </c>
+      <c r="E95">
+        <v>941</v>
+      </c>
+      <c r="F95" t="s">
+        <v>196</v>
+      </c>
+      <c r="G95" t="s">
+        <v>196</v>
+      </c>
+      <c r="H95" t="s">
+        <v>196</v>
+      </c>
+      <c r="I95">
+        <v>3</v>
+      </c>
+      <c r="J95">
+        <v>182</v>
+      </c>
+      <c r="K95" t="s">
+        <v>195</v>
+      </c>
+      <c r="L95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A96" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="B96" t="s">
+        <v>106</v>
+      </c>
+      <c r="C96">
+        <v>96</v>
+      </c>
+      <c r="D96">
+        <v>1</v>
+      </c>
+      <c r="E96">
+        <v>942</v>
+      </c>
+      <c r="F96" t="s">
+        <v>196</v>
+      </c>
+      <c r="G96" t="s">
+        <v>196</v>
+      </c>
+      <c r="H96" t="s">
+        <v>196</v>
+      </c>
+      <c r="I96">
+        <v>3</v>
+      </c>
+      <c r="J96">
+        <v>201</v>
+      </c>
+      <c r="K96" t="s">
+        <v>195</v>
+      </c>
+      <c r="L96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A97" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="B97" t="s">
+        <v>107</v>
+      </c>
+      <c r="C97">
+        <v>97</v>
+      </c>
+      <c r="D97">
+        <v>1</v>
+      </c>
+      <c r="E97">
+        <v>943</v>
+      </c>
+      <c r="F97" t="s">
+        <v>196</v>
+      </c>
+      <c r="G97" t="s">
+        <v>196</v>
+      </c>
+      <c r="H97" t="s">
+        <v>196</v>
+      </c>
+      <c r="I97">
+        <v>3</v>
+      </c>
+      <c r="J97">
+        <v>202</v>
+      </c>
+      <c r="K97" t="s">
+        <v>195</v>
+      </c>
+      <c r="L97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A98" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="B98" t="s">
+        <v>108</v>
+      </c>
+      <c r="C98">
+        <v>98</v>
+      </c>
+      <c r="D98">
+        <v>1</v>
+      </c>
+      <c r="E98">
+        <v>944</v>
+      </c>
+      <c r="F98" t="s">
+        <v>196</v>
+      </c>
+      <c r="G98" t="s">
+        <v>196</v>
+      </c>
+      <c r="H98" t="s">
+        <v>196</v>
+      </c>
+      <c r="I98">
+        <v>3</v>
+      </c>
+      <c r="J98">
+        <v>203</v>
+      </c>
+      <c r="K98" t="s">
+        <v>195</v>
+      </c>
+      <c r="L98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A99" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B99" t="s">
+        <v>109</v>
+      </c>
+      <c r="C99">
+        <v>99</v>
+      </c>
+      <c r="D99">
+        <v>1</v>
+      </c>
+      <c r="E99">
+        <v>945</v>
+      </c>
+      <c r="F99" t="s">
+        <v>196</v>
+      </c>
+      <c r="G99" t="s">
+        <v>196</v>
+      </c>
+      <c r="H99" t="s">
+        <v>196</v>
+      </c>
+      <c r="I99">
+        <v>3</v>
+      </c>
+      <c r="J99">
+        <v>204</v>
+      </c>
+      <c r="K99" t="s">
+        <v>195</v>
+      </c>
+      <c r="L99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A100" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="B100" t="s">
+        <v>110</v>
+      </c>
+      <c r="C100">
+        <v>100</v>
+      </c>
+      <c r="D100">
+        <v>1</v>
+      </c>
+      <c r="E100">
+        <v>946</v>
+      </c>
+      <c r="F100" t="s">
+        <v>196</v>
+      </c>
+      <c r="G100" t="s">
+        <v>196</v>
+      </c>
+      <c r="H100" t="s">
+        <v>196</v>
+      </c>
+      <c r="I100">
+        <v>3</v>
+      </c>
+      <c r="J100">
+        <v>205</v>
+      </c>
+      <c r="K100" t="s">
+        <v>195</v>
+      </c>
+      <c r="L100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A101" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="B101" t="s">
+        <v>111</v>
+      </c>
+      <c r="C101">
+        <v>101</v>
+      </c>
+      <c r="D101">
+        <v>1</v>
+      </c>
+      <c r="E101">
+        <v>947</v>
+      </c>
+      <c r="F101" t="s">
+        <v>196</v>
+      </c>
+      <c r="G101" t="s">
+        <v>196</v>
+      </c>
+      <c r="H101" t="s">
+        <v>196</v>
+      </c>
+      <c r="I101">
+        <v>3</v>
+      </c>
+      <c r="J101">
+        <v>206</v>
+      </c>
+      <c r="K101" t="s">
+        <v>195</v>
+      </c>
+      <c r="L101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A102" s="5" t="s">
+        <v>32</v>
+      </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A21">
+    <cfRule type="cellIs" dxfId="55" priority="56" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A21">
+    <cfRule type="cellIs" dxfId="54" priority="55" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A93:A95">
+    <cfRule type="cellIs" dxfId="53" priority="4" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A93:A95">
+    <cfRule type="cellIs" dxfId="52" priority="3" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A96:A101">
+    <cfRule type="cellIs" dxfId="51" priority="2" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A96:A101">
+    <cfRule type="cellIs" dxfId="50" priority="1" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A25:A55 A22 A66:A71">
+    <cfRule type="cellIs" dxfId="49" priority="50" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A25:A55 A22 A66:A71">
+    <cfRule type="cellIs" dxfId="48" priority="49" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A56:A65 A23:A24">
+    <cfRule type="cellIs" dxfId="47" priority="48" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A56:A65 A23:A24">
+    <cfRule type="cellIs" dxfId="46" priority="47" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A72:A75">
+    <cfRule type="cellIs" dxfId="45" priority="46" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A72:A75">
+    <cfRule type="cellIs" dxfId="44" priority="45" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A81">
+    <cfRule type="cellIs" dxfId="39" priority="16" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A81">
+    <cfRule type="cellIs" dxfId="38" priority="15" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A82">
+    <cfRule type="cellIs" dxfId="37" priority="14" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A82">
+    <cfRule type="cellIs" dxfId="36" priority="13" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A83">
+    <cfRule type="cellIs" dxfId="35" priority="12" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A83">
+    <cfRule type="cellIs" dxfId="34" priority="11" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A84">
+    <cfRule type="cellIs" dxfId="33" priority="10" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A84">
+    <cfRule type="cellIs" dxfId="32" priority="9" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A85">
+    <cfRule type="cellIs" dxfId="31" priority="8" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A85">
+    <cfRule type="cellIs" dxfId="30" priority="7" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A92">
+    <cfRule type="cellIs" dxfId="29" priority="6" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A92">
+    <cfRule type="cellIs" dxfId="28" priority="5" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A76:A77 A86:A91">
+    <cfRule type="cellIs" dxfId="23" priority="24" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A76:A77 A86:A91">
+    <cfRule type="cellIs" dxfId="22" priority="23" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A78">
+    <cfRule type="cellIs" dxfId="21" priority="22" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A78">
+    <cfRule type="cellIs" dxfId="20" priority="21" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A79">
+    <cfRule type="cellIs" dxfId="19" priority="20" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A79">
+    <cfRule type="cellIs" dxfId="18" priority="19" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A80">
+    <cfRule type="cellIs" dxfId="17" priority="18" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A80">
+    <cfRule type="cellIs" dxfId="16" priority="17" stopIfTrue="1" operator="equal">
+      <formula>"To translate"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Config Files/Trends_V0.xlsx
+++ b/Config Files/Trends_V0.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B1B116C-B673-4568-AD00-CF7CDE4B8726}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BF7269F-F79F-459F-9082-DFA77BA9F053}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,233 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Author</author>
+  </authors>
+  <commentList>
+    <comment ref="C19" authorId="0" shapeId="0" xr:uid="{3FDFFF79-19AB-4DF1-940B-1B19153C01F4}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+ID iz tablice stringova u weinteku
+[002] TrendString</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D19" authorId="0" shapeId="0" xr:uid="{DF4971B9-CC68-4C93-BE5E-4B03E0D635DD}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+registar za provjeru postojanja stignala</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E19" authorId="0" shapeId="0" xr:uid="{65C37FE5-E371-455B-88CD-70869639FA8E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+adresa za provjeru postojanja signala</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F19" authorId="0" shapeId="0" xr:uid="{C3FAEF0A-767B-462F-B195-215A22792807}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+DW za provjeru postojanja signala</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G19" authorId="0" shapeId="0" xr:uid="{FBEC4DAC-320C-4170-93E1-70B1A851DFF9}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+uvijet za provjeru postojanja signala</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H19" authorId="0" shapeId="0" xr:uid="{0477B7C9-FB86-408F-B7D1-3479BEAF9468}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+pozicija bita u DW-u za provjeru postojanja signala</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I19" authorId="0" shapeId="0" xr:uid="{9FEB48FD-9A58-493F-BFF2-ED67CA33230B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+registar signala</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J19" authorId="0" shapeId="0" xr:uid="{5F776316-8E2E-4165-B1AF-330BF2B56E04}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+adresa signala</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L19" authorId="0" shapeId="0" xr:uid="{5E4111D3-524A-4F64-84FC-FFABD073CC6A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+modbus data type</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="198">
   <si>
@@ -112,9 +339,6 @@
     <t>Scale</t>
   </si>
   <si>
-    <t>Data Type</t>
-  </si>
-  <si>
     <t>#GROUP# STANDARD</t>
   </si>
   <si>
@@ -614,13 +838,16 @@
   </si>
   <si>
     <t>0.001</t>
+  </si>
+  <si>
+    <t>Dana Type</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -641,6 +868,19 @@
       <sz val="8"/>
       <name val="Courier New"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="6">
@@ -699,175 +939,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="56">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC8C8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC8C8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC8C8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC8C8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC8C8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC8C8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC8C8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC8C8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC8C8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC8C8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC8C8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC8C8"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="32">
     <dxf>
       <fill>
         <patternFill>
@@ -1367,30 +1439,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.21875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.5546875" customWidth="1"/>
-    <col min="12" max="12" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="53.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.5703125" customWidth="1"/>
+    <col min="12" max="12" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1398,7 +1470,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -1406,7 +1478,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -1414,7 +1486,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -1422,7 +1494,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
@@ -1430,7 +1502,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
@@ -1438,7 +1510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
@@ -1446,7 +1518,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
@@ -1454,7 +1526,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
@@ -1462,7 +1534,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
@@ -1470,7 +1542,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>12</v>
       </c>
@@ -1478,7 +1550,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>13</v>
       </c>
@@ -1486,7 +1558,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>14</v>
       </c>
@@ -1494,7 +1566,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>15</v>
       </c>
@@ -1502,7 +1574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>16</v>
       </c>
@@ -1510,7 +1582,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>17</v>
       </c>
@@ -1518,7 +1590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>18</v>
       </c>
@@ -1526,7 +1598,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
@@ -1561,7 +1633,7 @@
         <v>29</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>30</v>
+        <v>197</v>
       </c>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
@@ -1573,17 +1645,17 @@
       <c r="T19" s="1"/>
       <c r="U19" s="1"/>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -1595,13 +1667,13 @@
         <v>802</v>
       </c>
       <c r="F21" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G21" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H21" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I21">
         <v>3</v>
@@ -1610,18 +1682,18 @@
         <v>33</v>
       </c>
       <c r="K21" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C22">
         <v>2</v>
@@ -1633,13 +1705,13 @@
         <v>833</v>
       </c>
       <c r="F22" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G22" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H22" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I22">
         <v>3</v>
@@ -1648,18 +1720,18 @@
         <v>41</v>
       </c>
       <c r="K22" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C23">
         <v>3</v>
@@ -1671,13 +1743,13 @@
         <v>834</v>
       </c>
       <c r="F23" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G23" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H23" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I23">
         <v>3</v>
@@ -1686,18 +1758,18 @@
         <v>42</v>
       </c>
       <c r="K23" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C24">
         <v>4</v>
@@ -1709,13 +1781,13 @@
         <v>835</v>
       </c>
       <c r="F24" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G24" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H24" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I24">
         <v>3</v>
@@ -1724,18 +1796,18 @@
         <v>43</v>
       </c>
       <c r="K24" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B25" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C25">
         <v>5</v>
@@ -1747,13 +1819,13 @@
         <v>836</v>
       </c>
       <c r="F25" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G25" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H25" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I25">
         <v>3</v>
@@ -1762,18 +1834,18 @@
         <v>44</v>
       </c>
       <c r="K25" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C26">
         <v>6</v>
@@ -1785,13 +1857,13 @@
         <v>837</v>
       </c>
       <c r="F26" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G26" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H26" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I26">
         <v>3</v>
@@ -1800,18 +1872,18 @@
         <v>45</v>
       </c>
       <c r="K26" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C27">
         <v>7</v>
@@ -1823,13 +1895,13 @@
         <v>838</v>
       </c>
       <c r="F27" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G27" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H27" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I27">
         <v>3</v>
@@ -1838,18 +1910,18 @@
         <v>46</v>
       </c>
       <c r="K27" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C28">
         <v>8</v>
@@ -1861,13 +1933,13 @@
         <v>839</v>
       </c>
       <c r="F28" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G28" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H28" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I28">
         <v>3</v>
@@ -1876,18 +1948,18 @@
         <v>47</v>
       </c>
       <c r="K28" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B29" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C29">
         <v>9</v>
@@ -1899,13 +1971,13 @@
         <v>840</v>
       </c>
       <c r="F29" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G29" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H29" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I29">
         <v>3</v>
@@ -1914,18 +1986,18 @@
         <v>48</v>
       </c>
       <c r="K29" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B30" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C30">
         <v>10</v>
@@ -1937,13 +2009,13 @@
         <v>841</v>
       </c>
       <c r="F30" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G30" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H30" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I30">
         <v>3</v>
@@ -1952,18 +2024,18 @@
         <v>49</v>
       </c>
       <c r="K30" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B31" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C31">
         <v>11</v>
@@ -1975,13 +2047,13 @@
         <v>842</v>
       </c>
       <c r="F31" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G31" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H31" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I31">
         <v>3</v>
@@ -1990,18 +2062,18 @@
         <v>50</v>
       </c>
       <c r="K31" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C32">
         <v>12</v>
@@ -2013,13 +2085,13 @@
         <v>843</v>
       </c>
       <c r="F32" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G32" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H32" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I32">
         <v>3</v>
@@ -2028,18 +2100,18 @@
         <v>51</v>
       </c>
       <c r="K32" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B33" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C33">
         <v>13</v>
@@ -2051,13 +2123,13 @@
         <v>844</v>
       </c>
       <c r="F33" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G33" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H33" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I33">
         <v>3</v>
@@ -2066,18 +2138,18 @@
         <v>52</v>
       </c>
       <c r="K33" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C34">
         <v>14</v>
@@ -2089,13 +2161,13 @@
         <v>845</v>
       </c>
       <c r="F34" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G34" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H34" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I34">
         <v>3</v>
@@ -2104,18 +2176,18 @@
         <v>53</v>
       </c>
       <c r="K34" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C35">
         <v>15</v>
@@ -2127,13 +2199,13 @@
         <v>846</v>
       </c>
       <c r="F35" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G35" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H35" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I35">
         <v>3</v>
@@ -2142,18 +2214,18 @@
         <v>54</v>
       </c>
       <c r="K35" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C36">
         <v>16</v>
@@ -2165,13 +2237,13 @@
         <v>847</v>
       </c>
       <c r="F36" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G36" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H36" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I36">
         <v>3</v>
@@ -2180,18 +2252,18 @@
         <v>55</v>
       </c>
       <c r="K36" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B37" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C37">
         <v>17</v>
@@ -2203,13 +2275,13 @@
         <v>848</v>
       </c>
       <c r="F37" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G37" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H37" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I37">
         <v>3</v>
@@ -2218,18 +2290,18 @@
         <v>56</v>
       </c>
       <c r="K37" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B38" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C38">
         <v>18</v>
@@ -2241,13 +2313,13 @@
         <v>849</v>
       </c>
       <c r="F38" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G38" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H38" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I38">
         <v>3</v>
@@ -2256,18 +2328,18 @@
         <v>57</v>
       </c>
       <c r="K38" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L38">
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B39" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C39">
         <v>19</v>
@@ -2279,13 +2351,13 @@
         <v>850</v>
       </c>
       <c r="F39" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G39" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H39" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I39">
         <v>3</v>
@@ -2294,18 +2366,18 @@
         <v>58</v>
       </c>
       <c r="K39" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L39">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B40" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C40">
         <v>20</v>
@@ -2317,13 +2389,13 @@
         <v>851</v>
       </c>
       <c r="F40" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G40" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H40" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I40">
         <v>3</v>
@@ -2332,18 +2404,18 @@
         <v>59</v>
       </c>
       <c r="K40" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L40">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B41" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C41">
         <v>21</v>
@@ -2355,13 +2427,13 @@
         <v>852</v>
       </c>
       <c r="F41" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G41" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H41" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I41">
         <v>3</v>
@@ -2370,18 +2442,18 @@
         <v>60</v>
       </c>
       <c r="K41" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L41">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B42" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C42">
         <v>22</v>
@@ -2393,13 +2465,13 @@
         <v>853</v>
       </c>
       <c r="F42" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G42" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H42" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I42">
         <v>3</v>
@@ -2408,18 +2480,18 @@
         <v>61</v>
       </c>
       <c r="K42" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L42">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B43" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C43">
         <v>23</v>
@@ -2431,13 +2503,13 @@
         <v>854</v>
       </c>
       <c r="F43" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G43" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H43" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I43">
         <v>3</v>
@@ -2446,18 +2518,18 @@
         <v>62</v>
       </c>
       <c r="K43" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L43">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B44" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C44">
         <v>24</v>
@@ -2469,13 +2541,13 @@
         <v>851</v>
       </c>
       <c r="F44" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G44" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H44" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I44">
         <v>3</v>
@@ -2484,18 +2556,18 @@
         <v>63</v>
       </c>
       <c r="K44" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L44">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B45" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C45">
         <v>25</v>
@@ -2507,13 +2579,13 @@
         <v>851</v>
       </c>
       <c r="F45" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G45" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H45" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I45">
         <v>3</v>
@@ -2522,18 +2594,18 @@
         <v>64</v>
       </c>
       <c r="K45" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L45">
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B46" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C46">
         <v>26</v>
@@ -2545,13 +2617,13 @@
         <v>852</v>
       </c>
       <c r="F46" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G46" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H46" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I46">
         <v>3</v>
@@ -2560,18 +2632,18 @@
         <v>65</v>
       </c>
       <c r="K46" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L46">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B47" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C47">
         <v>27</v>
@@ -2583,13 +2655,13 @@
         <v>852</v>
       </c>
       <c r="F47" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G47" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H47" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I47">
         <v>3</v>
@@ -2598,18 +2670,18 @@
         <v>66</v>
       </c>
       <c r="K47" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L47">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B48" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C48">
         <v>28</v>
@@ -2621,13 +2693,13 @@
         <v>853</v>
       </c>
       <c r="F48" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G48" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H48" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I48">
         <v>3</v>
@@ -2636,18 +2708,18 @@
         <v>67</v>
       </c>
       <c r="K48" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L48">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B49" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C49">
         <v>29</v>
@@ -2659,13 +2731,13 @@
         <v>853</v>
       </c>
       <c r="F49" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G49" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H49" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I49">
         <v>3</v>
@@ -2674,18 +2746,18 @@
         <v>68</v>
       </c>
       <c r="K49" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L49">
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B50" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C50">
         <v>30</v>
@@ -2697,13 +2769,13 @@
         <v>855</v>
       </c>
       <c r="F50" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G50" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H50" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I50">
         <v>3</v>
@@ -2712,18 +2784,18 @@
         <v>69</v>
       </c>
       <c r="K50" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="L50">
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B51" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C51">
         <v>31</v>
@@ -2735,13 +2807,13 @@
         <v>856</v>
       </c>
       <c r="F51" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G51" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H51" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I51">
         <v>3</v>
@@ -2750,18 +2822,18 @@
         <v>70</v>
       </c>
       <c r="K51" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="L51">
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B52" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C52">
         <v>32</v>
@@ -2773,13 +2845,13 @@
         <v>857</v>
       </c>
       <c r="F52" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G52" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H52" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I52">
         <v>3</v>
@@ -2788,18 +2860,18 @@
         <v>71</v>
       </c>
       <c r="K52" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="L52">
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B53" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C53">
         <v>33</v>
@@ -2811,13 +2883,13 @@
         <v>858</v>
       </c>
       <c r="F53" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G53" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H53" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I53">
         <v>3</v>
@@ -2826,18 +2898,18 @@
         <v>72</v>
       </c>
       <c r="K53" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="L53">
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B54" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C54">
         <v>34</v>
@@ -2849,13 +2921,13 @@
         <v>859</v>
       </c>
       <c r="F54" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G54" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H54" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I54">
         <v>3</v>
@@ -2864,18 +2936,18 @@
         <v>73</v>
       </c>
       <c r="K54" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="L54">
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B55" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C55">
         <v>35</v>
@@ -2887,13 +2959,13 @@
         <v>860</v>
       </c>
       <c r="F55" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G55" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H55" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I55">
         <v>3</v>
@@ -2902,18 +2974,18 @@
         <v>74</v>
       </c>
       <c r="K55" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="L55">
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B56" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C56">
         <v>36</v>
@@ -2925,13 +2997,13 @@
         <v>861</v>
       </c>
       <c r="F56" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G56" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H56" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I56">
         <v>3</v>
@@ -2940,18 +3012,18 @@
         <v>75</v>
       </c>
       <c r="K56" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="L56">
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B57" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C57">
         <v>37</v>
@@ -2963,13 +3035,13 @@
         <v>862</v>
       </c>
       <c r="F57" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G57" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H57" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I57">
         <v>3</v>
@@ -2978,18 +3050,18 @@
         <v>76</v>
       </c>
       <c r="K57" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="L57">
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B58" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C58">
         <v>38</v>
@@ -3001,13 +3073,13 @@
         <v>863</v>
       </c>
       <c r="F58" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G58" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H58" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I58">
         <v>3</v>
@@ -3016,18 +3088,18 @@
         <v>77</v>
       </c>
       <c r="K58" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="L58">
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B59" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C59">
         <v>39</v>
@@ -3039,13 +3111,13 @@
         <v>864</v>
       </c>
       <c r="F59" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G59" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H59" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I59">
         <v>3</v>
@@ -3054,18 +3126,18 @@
         <v>78</v>
       </c>
       <c r="K59" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="L59">
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B60" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C60">
         <v>40</v>
@@ -3077,13 +3149,13 @@
         <v>865</v>
       </c>
       <c r="F60" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G60" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H60" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I60">
         <v>3</v>
@@ -3092,18 +3164,18 @@
         <v>79</v>
       </c>
       <c r="K60" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="L60">
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B61" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C61">
         <v>41</v>
@@ -3115,13 +3187,13 @@
         <v>866</v>
       </c>
       <c r="F61" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G61" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H61" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I61">
         <v>3</v>
@@ -3130,18 +3202,18 @@
         <v>80</v>
       </c>
       <c r="K61" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="L61">
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B62" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C62">
         <v>42</v>
@@ -3153,13 +3225,13 @@
         <v>867</v>
       </c>
       <c r="F62" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G62" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H62" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I62">
         <v>3</v>
@@ -3168,18 +3240,18 @@
         <v>81</v>
       </c>
       <c r="K62" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="L62">
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B63" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C63">
         <v>43</v>
@@ -3191,13 +3263,13 @@
         <v>868</v>
       </c>
       <c r="F63" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G63" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H63" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I63">
         <v>3</v>
@@ -3206,18 +3278,18 @@
         <v>82</v>
       </c>
       <c r="K63" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="L63">
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B64" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C64">
         <v>44</v>
@@ -3229,13 +3301,13 @@
         <v>869</v>
       </c>
       <c r="F64" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G64" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H64" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I64">
         <v>3</v>
@@ -3244,18 +3316,18 @@
         <v>83</v>
       </c>
       <c r="K64" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="L64">
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B65" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C65">
         <v>45</v>
@@ -3267,13 +3339,13 @@
         <v>870</v>
       </c>
       <c r="F65" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G65" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H65" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I65">
         <v>3</v>
@@ -3282,18 +3354,18 @@
         <v>84</v>
       </c>
       <c r="K65" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="L65">
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B66" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C66">
         <v>46</v>
@@ -3305,13 +3377,13 @@
         <v>871</v>
       </c>
       <c r="F66" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G66" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H66" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I66">
         <v>3</v>
@@ -3320,18 +3392,18 @@
         <v>85</v>
       </c>
       <c r="K66" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="L66">
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B67" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C67">
         <v>47</v>
@@ -3343,13 +3415,13 @@
         <v>872</v>
       </c>
       <c r="F67" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G67" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H67" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I67">
         <v>3</v>
@@ -3358,18 +3430,18 @@
         <v>87</v>
       </c>
       <c r="K67" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="L67">
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B68" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C68">
         <v>48</v>
@@ -3381,13 +3453,13 @@
         <v>873</v>
       </c>
       <c r="F68" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G68" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H68" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I68">
         <v>3</v>
@@ -3396,18 +3468,18 @@
         <v>89</v>
       </c>
       <c r="K68" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="L68">
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B69" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C69">
         <v>49</v>
@@ -3419,13 +3491,13 @@
         <v>874</v>
       </c>
       <c r="F69" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G69" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H69" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I69">
         <v>3</v>
@@ -3434,18 +3506,18 @@
         <v>90</v>
       </c>
       <c r="K69" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="L69">
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B70" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C70">
         <v>50</v>
@@ -3457,13 +3529,13 @@
         <v>875</v>
       </c>
       <c r="F70" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G70" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H70" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I70">
         <v>3</v>
@@ -3472,18 +3544,18 @@
         <v>91</v>
       </c>
       <c r="K70" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L70">
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B71" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C71">
         <v>51</v>
@@ -3495,13 +3567,13 @@
         <v>876</v>
       </c>
       <c r="F71" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G71" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H71" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I71">
         <v>3</v>
@@ -3510,27 +3582,27 @@
         <v>92</v>
       </c>
       <c r="K71" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L71">
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B72" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C72">
         <v>52</v>
       </c>
       <c r="D72" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E72" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F72">
         <v>2</v>
@@ -3545,27 +3617,27 @@
         <v>131</v>
       </c>
       <c r="K72" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="L72">
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B73" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C73">
         <v>53</v>
       </c>
       <c r="D73" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E73" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F73">
         <v>2</v>
@@ -3580,27 +3652,27 @@
         <v>132</v>
       </c>
       <c r="K73" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="L73">
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B74" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C74">
         <v>54</v>
       </c>
       <c r="D74" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E74" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F74">
         <v>2</v>
@@ -3615,27 +3687,27 @@
         <v>146</v>
       </c>
       <c r="K74" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="L74">
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B75" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C75">
         <v>55</v>
       </c>
       <c r="D75" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E75" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F75">
         <v>2</v>
@@ -3650,18 +3722,18 @@
         <v>147</v>
       </c>
       <c r="K75" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="L75">
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B76" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C76">
         <v>76</v>
@@ -3673,13 +3745,13 @@
         <v>920</v>
       </c>
       <c r="F76" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G76" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H76" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I76">
         <v>3</v>
@@ -3688,18 +3760,18 @@
         <v>161</v>
       </c>
       <c r="K76" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L76">
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B77" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C77">
         <v>77</v>
@@ -3711,13 +3783,13 @@
         <v>921</v>
       </c>
       <c r="F77" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G77" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H77" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I77">
         <v>3</v>
@@ -3726,18 +3798,18 @@
         <v>162</v>
       </c>
       <c r="K77" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L77">
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B78" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C78">
         <v>78</v>
@@ -3749,13 +3821,13 @@
         <v>922</v>
       </c>
       <c r="F78" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G78" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H78" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I78">
         <v>3</v>
@@ -3764,18 +3836,18 @@
         <v>163</v>
       </c>
       <c r="K78" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L78">
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B79" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C79">
         <v>79</v>
@@ -3787,13 +3859,13 @@
         <v>923</v>
       </c>
       <c r="F79" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G79" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H79" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I79">
         <v>3</v>
@@ -3802,18 +3874,18 @@
         <v>164</v>
       </c>
       <c r="K79" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L79">
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B80" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C80">
         <v>80</v>
@@ -3825,13 +3897,13 @@
         <v>924</v>
       </c>
       <c r="F80" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G80" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H80" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I80">
         <v>3</v>
@@ -3840,18 +3912,18 @@
         <v>165</v>
       </c>
       <c r="K80" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L80">
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B81" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C81">
         <v>81</v>
@@ -3863,13 +3935,13 @@
         <v>925</v>
       </c>
       <c r="F81" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G81" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H81" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I81">
         <v>3</v>
@@ -3878,18 +3950,18 @@
         <v>166</v>
       </c>
       <c r="K81" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L81">
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B82" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C82">
         <v>82</v>
@@ -3901,13 +3973,13 @@
         <v>926</v>
       </c>
       <c r="F82" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G82" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H82" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I82">
         <v>3</v>
@@ -3916,18 +3988,18 @@
         <v>167</v>
       </c>
       <c r="K82" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L82">
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B83" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C83">
         <v>83</v>
@@ -3939,13 +4011,13 @@
         <v>927</v>
       </c>
       <c r="F83" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G83" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H83" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I83">
         <v>3</v>
@@ -3954,18 +4026,18 @@
         <v>168</v>
       </c>
       <c r="K83" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L83">
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B84" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C84">
         <v>84</v>
@@ -3977,13 +4049,13 @@
         <v>928</v>
       </c>
       <c r="F84" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G84" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H84" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I84">
         <v>3</v>
@@ -3992,18 +4064,18 @@
         <v>169</v>
       </c>
       <c r="K84" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L84">
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B85" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C85">
         <v>85</v>
@@ -4015,13 +4087,13 @@
         <v>929</v>
       </c>
       <c r="F85" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G85" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H85" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I85">
         <v>3</v>
@@ -4030,18 +4102,18 @@
         <v>170</v>
       </c>
       <c r="K85" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L85">
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B86" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C86">
         <v>86</v>
@@ -4053,13 +4125,13 @@
         <v>930</v>
       </c>
       <c r="F86" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G86" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H86" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I86">
         <v>3</v>
@@ -4068,18 +4140,18 @@
         <v>171</v>
       </c>
       <c r="K86" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L86">
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B87" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C87">
         <v>87</v>
@@ -4091,13 +4163,13 @@
         <v>931</v>
       </c>
       <c r="F87" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G87" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H87" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I87">
         <v>3</v>
@@ -4106,18 +4178,18 @@
         <v>172</v>
       </c>
       <c r="K87" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L87">
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B88" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C88">
         <v>88</v>
@@ -4129,13 +4201,13 @@
         <v>932</v>
       </c>
       <c r="F88" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G88" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H88" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I88">
         <v>3</v>
@@ -4144,18 +4216,18 @@
         <v>173</v>
       </c>
       <c r="K88" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L88">
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B89" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C89">
         <v>89</v>
@@ -4167,13 +4239,13 @@
         <v>933</v>
       </c>
       <c r="F89" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G89" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H89" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I89">
         <v>3</v>
@@ -4182,18 +4254,18 @@
         <v>174</v>
       </c>
       <c r="K89" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L89">
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B90" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C90">
         <v>90</v>
@@ -4205,13 +4277,13 @@
         <v>934</v>
       </c>
       <c r="F90" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G90" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H90" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I90">
         <v>3</v>
@@ -4220,18 +4292,18 @@
         <v>175</v>
       </c>
       <c r="K90" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L90">
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B91" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C91">
         <v>91</v>
@@ -4243,13 +4315,13 @@
         <v>935</v>
       </c>
       <c r="F91" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G91" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H91" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I91">
         <v>3</v>
@@ -4258,18 +4330,18 @@
         <v>176</v>
       </c>
       <c r="K91" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L91">
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B92" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C92">
         <v>92</v>
@@ -4281,13 +4353,13 @@
         <v>937</v>
       </c>
       <c r="F92" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G92" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H92" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I92">
         <v>3</v>
@@ -4296,18 +4368,18 @@
         <v>178</v>
       </c>
       <c r="K92" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L92">
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B93" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C93">
         <v>93</v>
@@ -4319,13 +4391,13 @@
         <v>939</v>
       </c>
       <c r="F93" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G93" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H93" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I93">
         <v>3</v>
@@ -4334,18 +4406,18 @@
         <v>180</v>
       </c>
       <c r="K93" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L93">
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B94" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C94">
         <v>94</v>
@@ -4357,13 +4429,13 @@
         <v>940</v>
       </c>
       <c r="F94" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G94" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H94" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I94">
         <v>3</v>
@@ -4372,18 +4444,18 @@
         <v>181</v>
       </c>
       <c r="K94" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L94">
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B95" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C95">
         <v>95</v>
@@ -4395,13 +4467,13 @@
         <v>941</v>
       </c>
       <c r="F95" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G95" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H95" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I95">
         <v>3</v>
@@ -4410,18 +4482,18 @@
         <v>182</v>
       </c>
       <c r="K95" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L95">
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B96" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C96">
         <v>96</v>
@@ -4433,13 +4505,13 @@
         <v>942</v>
       </c>
       <c r="F96" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G96" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H96" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I96">
         <v>3</v>
@@ -4448,18 +4520,18 @@
         <v>201</v>
       </c>
       <c r="K96" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L96">
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B97" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C97">
         <v>97</v>
@@ -4471,13 +4543,13 @@
         <v>943</v>
       </c>
       <c r="F97" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G97" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H97" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I97">
         <v>3</v>
@@ -4486,18 +4558,18 @@
         <v>202</v>
       </c>
       <c r="K97" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L97">
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B98" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C98">
         <v>98</v>
@@ -4509,13 +4581,13 @@
         <v>944</v>
       </c>
       <c r="F98" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G98" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H98" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I98">
         <v>3</v>
@@ -4524,18 +4596,18 @@
         <v>203</v>
       </c>
       <c r="K98" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L98">
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B99" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C99">
         <v>99</v>
@@ -4547,13 +4619,13 @@
         <v>945</v>
       </c>
       <c r="F99" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G99" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H99" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I99">
         <v>3</v>
@@ -4562,18 +4634,18 @@
         <v>204</v>
       </c>
       <c r="K99" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L99">
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B100" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C100">
         <v>100</v>
@@ -4585,13 +4657,13 @@
         <v>946</v>
       </c>
       <c r="F100" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G100" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H100" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I100">
         <v>3</v>
@@ -4600,18 +4672,18 @@
         <v>205</v>
       </c>
       <c r="K100" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L100">
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B101" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C101">
         <v>101</v>
@@ -4623,13 +4695,13 @@
         <v>947</v>
       </c>
       <c r="F101" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G101" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H101" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I101">
         <v>3</v>
@@ -4638,178 +4710,179 @@
         <v>206</v>
       </c>
       <c r="K101" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L101">
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A21">
-    <cfRule type="cellIs" dxfId="55" priority="56" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="56" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21">
-    <cfRule type="cellIs" dxfId="54" priority="55" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="55" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A93:A95">
-    <cfRule type="cellIs" dxfId="53" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="4" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A93:A95">
-    <cfRule type="cellIs" dxfId="52" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="3" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A96:A101">
-    <cfRule type="cellIs" dxfId="51" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="2" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A96:A101">
-    <cfRule type="cellIs" dxfId="50" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="1" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A25:A55 A22 A66:A71">
-    <cfRule type="cellIs" dxfId="49" priority="50" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="50" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A25:A55 A22 A66:A71">
-    <cfRule type="cellIs" dxfId="48" priority="49" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="49" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A56:A65 A23:A24">
-    <cfRule type="cellIs" dxfId="47" priority="48" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="48" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A56:A65 A23:A24">
-    <cfRule type="cellIs" dxfId="46" priority="47" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="47" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A72:A75">
-    <cfRule type="cellIs" dxfId="45" priority="46" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="46" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A72:A75">
-    <cfRule type="cellIs" dxfId="44" priority="45" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="45" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A81">
-    <cfRule type="cellIs" dxfId="39" priority="16" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="16" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A81">
-    <cfRule type="cellIs" dxfId="38" priority="15" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="15" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A82">
-    <cfRule type="cellIs" dxfId="37" priority="14" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="14" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A82">
-    <cfRule type="cellIs" dxfId="36" priority="13" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="13" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A83">
-    <cfRule type="cellIs" dxfId="35" priority="12" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="12" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A83">
-    <cfRule type="cellIs" dxfId="34" priority="11" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="11" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A84">
-    <cfRule type="cellIs" dxfId="33" priority="10" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="10" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A84">
-    <cfRule type="cellIs" dxfId="32" priority="9" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="9" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A85">
-    <cfRule type="cellIs" dxfId="31" priority="8" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="8" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A85">
-    <cfRule type="cellIs" dxfId="30" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="7" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A92">
-    <cfRule type="cellIs" dxfId="29" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="6" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A92">
-    <cfRule type="cellIs" dxfId="28" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="5" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A76:A77 A86:A91">
-    <cfRule type="cellIs" dxfId="23" priority="24" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="24" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A76:A77 A86:A91">
-    <cfRule type="cellIs" dxfId="22" priority="23" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="23" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A78">
-    <cfRule type="cellIs" dxfId="21" priority="22" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="22" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A78">
-    <cfRule type="cellIs" dxfId="20" priority="21" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="21" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A79">
-    <cfRule type="cellIs" dxfId="19" priority="20" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="20" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A79">
-    <cfRule type="cellIs" dxfId="18" priority="19" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="19" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A80">
-    <cfRule type="cellIs" dxfId="17" priority="18" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="18" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A80">
-    <cfRule type="cellIs" dxfId="16" priority="17" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="17" stopIfTrue="1" operator="equal">
       <formula>"To translate"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Config Files/Trends_V0.xlsx
+++ b/Config Files/Trends_V0.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BF7269F-F79F-459F-9082-DFA77BA9F053}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE877D57-5C34-4B33-9DD3-33CE6F8AD6C3}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -70,7 +70,7 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-registar za provjeru postojanja stignala</t>
+tip registra za provjeru postojanja stignala</t>
         </r>
       </text>
     </comment>
@@ -118,7 +118,7 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-DW za provjeru postojanja signala</t>
+DW (double word u kojem bitovi označuju postojanje odgovarajućeg signala) za provjeru postojanja signala</t>
         </r>
       </text>
     </comment>
@@ -142,7 +142,10 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-uvijet za provjeru postojanja signala</t>
+uvijet za provjeru postojanja signala. Npr:
+&lt; 1
+&gt; 2
+== 3</t>
         </r>
       </text>
     </comment>
@@ -190,7 +193,7 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-registar signala</t>
+tip registra signala</t>
         </r>
       </text>
     </comment>
@@ -1442,8 +1445,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
